--- a/db/db-challenge2/chatwork_データベース定義書.xlsx
+++ b/db/db-challenge2/chatwork_データベース定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryu/git/quelcode-db/db/db-challenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C2CFEC-5173-FD4C-839C-B236FB1925F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EF4BB5-396B-8942-931E-022CA263424A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="6780" windowWidth="27740" windowHeight="11920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1960" yWindow="6620" windowWidth="27740" windowHeight="11920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -898,10 +898,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>participants_id</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>PK,FK</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1250,6 +1246,10 @@
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>participant_id</t>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
@@ -1723,7 +1723,7 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1874,13 +1874,13 @@
         <v>44027</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1910,7 +1910,7 @@
         <v>44027</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>80</v>
@@ -1946,7 +1946,7 @@
         <v>44027</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>80</v>
@@ -1982,7 +1982,7 @@
         <v>44027</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>80</v>
@@ -2021,7 +2021,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>81</v>
@@ -2054,10 +2054,10 @@
         <v>44029</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>81</v>
@@ -2090,10 +2090,10 @@
         <v>44029</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>81</v>
@@ -2126,10 +2126,10 @@
         <v>44029</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>81</v>
@@ -2162,10 +2162,10 @@
         <v>44029</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>81</v>
@@ -31391,7 +31391,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>75</v>
@@ -31546,7 +31546,7 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>70</v>
@@ -31571,7 +31571,7 @@
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>70</v>
@@ -31807,7 +31807,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>95</v>
@@ -31827,7 +31827,7 @@
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14">
@@ -31912,7 +31912,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16">
@@ -31939,7 +31939,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14">
@@ -31958,7 +31958,7 @@
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>70</v>
@@ -31983,7 +31983,7 @@
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>70</v>
@@ -32041,9 +32041,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -32130,7 +32130,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>69</v>
@@ -32143,11 +32143,11 @@
         <v>70</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14">
@@ -32172,11 +32172,11 @@
         <v>70</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14">
@@ -32188,14 +32188,14 @@
         <v>103</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>70</v>
@@ -32383,7 +32383,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -32393,7 +32393,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -32444,10 +32444,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>69</v>
@@ -32489,11 +32489,11 @@
         <v>70</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14">
@@ -32501,10 +32501,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
@@ -32519,7 +32519,7 @@
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="K7" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14">
@@ -32528,10 +32528,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>75</v>
@@ -32553,10 +32553,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>75</v>
@@ -32623,7 +32623,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14">
@@ -32632,7 +32632,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>74</v>
@@ -32642,7 +32642,7 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>70</v>
@@ -32657,17 +32657,17 @@
         <v>9</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>70</v>
@@ -32780,7 +32780,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -32790,7 +32790,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -32841,10 +32841,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>69</v>
@@ -32870,10 +32870,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>75</v>
@@ -32895,10 +32895,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>69</v>
@@ -32911,11 +32911,11 @@
         <v>70</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14">
@@ -32924,10 +32924,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>78</v>
@@ -32945,10 +32945,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>76</v>
@@ -32965,7 +32965,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14">
@@ -33003,10 +33003,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>69</v>
@@ -33028,10 +33028,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>69</v>
@@ -33063,7 +33063,7 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>70</v>
@@ -33078,7 +33078,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>74</v>
@@ -33088,7 +33088,7 @@
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>70</v>

--- a/db/db-challenge2/chatwork_データベース定義書.xlsx
+++ b/db/db-challenge2/chatwork_データベース定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryu/git/quelcode-db/db/db-challenge2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EF4BB5-396B-8942-931E-022CA263424A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F0A5E-4E8B-A746-A735-1EC9CFD3C203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1960" yWindow="6620" windowWidth="27740" windowHeight="11920" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6620" windowWidth="27740" windowHeight="11920" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,21 @@
     <sheet name="tasks" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="158">
   <si>
     <t>改定履歴</t>
   </si>
@@ -1251,6 +1261,13 @@
     <t>participant_id</t>
     <phoneticPr fontId="14"/>
   </si>
+  <si>
+    <t>外部キー:chat_rooms(room_id)</t>
+    <rPh sb="0" eb="1">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
 </sst>
 </file>
 
@@ -1426,7 +1443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1494,6 +1511,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -30701,31 +30719,31 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="B4" s="3" t="s">
@@ -31000,25 +31018,25 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31273,29 +31291,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -31668,29 +31686,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -32041,7 +32059,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3:D3"/>
     </sheetView>
@@ -32065,29 +32083,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -32382,29 +32400,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -32753,11 +32771,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -32771,7 +32789,7 @@
     <col min="7" max="7" width="15.1640625" style="28" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="28" customWidth="1"/>
     <col min="9" max="10" width="14.5" style="28"/>
-    <col min="11" max="11" width="20.1640625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="28" customWidth="1"/>
     <col min="12" max="16384" width="14.5" style="28"/>
   </cols>
   <sheetData>
@@ -32779,29 +32797,29 @@
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="13">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="14">
       <c r="B4" s="3" t="s">
@@ -32837,7 +32855,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="B5" s="7">
-        <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -32864,30 +32882,33 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="14">
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="15.75" customHeight="1">
       <c r="B6" s="7">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F6" s="20">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="I6" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="24" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="14">
       <c r="B7" s="7">
@@ -32895,28 +32916,24 @@
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F7" s="20">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="24"/>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>121</v>
-      </c>
+      <c r="I7" s="24"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="24" t="s">
-        <v>105</v>
-      </c>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="14">
       <c r="B8" s="7">
@@ -32924,20 +32941,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="F8" s="20">
+        <v>10</v>
+      </c>
       <c r="G8" s="24"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="24"/>
+      <c r="H8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>121</v>
+      </c>
       <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="24" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="14">
       <c r="B9" s="7">
@@ -32945,28 +32970,20 @@
         <v>5</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="20">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>70</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="14">
       <c r="B10" s="7">
@@ -32974,10 +32991,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>76</v>
@@ -32993,8 +33010,8 @@
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="31" t="s">
-        <v>77</v>
+      <c r="K10" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14">
@@ -33003,24 +33020,28 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F11" s="20">
-        <v>10</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>70</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="19"/>
+      <c r="K11" s="31" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="14">
       <c r="B12" s="7">
@@ -33028,24 +33049,24 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>10</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="29" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="14">
       <c r="B13" s="7">
@@ -33053,18 +33074,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="24" t="s">
-        <v>153</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F13" s="21">
+        <v>10</v>
+      </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="29" t="s">
         <v>70</v>
       </c>
@@ -33078,15 +33099,15 @@
         <v>10</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="24" t="s">
         <v>153</v>
       </c>
@@ -33097,20 +33118,45 @@
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:11" ht="13">
+    <row r="15" spans="1:11" ht="14">
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" ht="13">
+      <c r="B16" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
